--- a/FinderApp/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/FinderApp/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
-    <sheet name="values" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Suite1">#REF!</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Y</t>
   </si>
@@ -117,12 +116,6 @@
   </si>
   <si>
     <t>172.16.3.30</t>
-  </si>
-  <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>admin</t>
   </si>
   <si>
     <t>TEST MANAGEMENT TOOL CONFIGURATION</t>
@@ -151,9 +144,6 @@
     <t>BUG TRACKING TOOL Name</t>
   </si>
   <si>
-    <t>Mantis</t>
-  </si>
-  <si>
     <t>Tx-Automate: SETTINGS</t>
   </si>
   <si>
@@ -163,12 +153,6 @@
     <t>JIRA</t>
   </si>
   <si>
-    <t>Jira</t>
-  </si>
-  <si>
-    <t>192.168.3.18</t>
-  </si>
-  <si>
     <t>TES</t>
   </si>
   <si>
@@ -226,64 +210,49 @@
     <t>0001505811674768-242ac112-0001</t>
   </si>
   <si>
-    <t>https://uat-upcenhancements.hostedinsurance.com/AgentPortal/login</t>
+    <t>WINDOWS_10</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>1qq6cPPNrx5OdFLlybxNAA28</t>
+  </si>
+  <si>
+    <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/</t>
+  </si>
+  <si>
+    <t>ztbtHPmNJCmqXbeYShxZ</t>
+  </si>
+  <si>
+    <t>maddela.rao@500apps.com</t>
+  </si>
+  <si>
+    <t>maddela</t>
+  </si>
+  <si>
+    <t>https://maddela.atlassian.net</t>
+  </si>
+  <si>
+    <t>maddela.narsing@gmail.com</t>
+  </si>
+  <si>
+    <t>maddela@1234</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>CHROME</t>
-  </si>
-  <si>
-    <t>UPC</t>
-  </si>
-  <si>
-    <t>VitaminShoppe</t>
-  </si>
-  <si>
-    <t>https://redesign.perf.vitaminshoppe.com/</t>
-  </si>
-  <si>
-    <t>WINDOWS_10</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>1qq6cPPNrx5OdFLlybxNAA28</t>
-  </si>
-  <si>
-    <t>emulator-5554</t>
-  </si>
-  <si>
-    <t>7.1.1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/</t>
-  </si>
-  <si>
-    <t>ztbtHPmNJCmqXbeYShxZ</t>
-  </si>
-  <si>
-    <t>maddela.rao@500apps.com</t>
-  </si>
-  <si>
-    <t>maddela</t>
-  </si>
-  <si>
-    <t>https://maddela.atlassian.net</t>
-  </si>
-  <si>
-    <t>maddela.narsing@gmail.com</t>
-  </si>
-  <si>
-    <t>maddela@1234</t>
-  </si>
-  <si>
-    <t>maddela@123</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -845,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -862,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -871,10 +840,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -896,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -907,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -918,7 +887,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -926,13 +895,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="63">
@@ -945,7 +914,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -964,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="3"/>
@@ -975,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="3"/>
@@ -986,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="3"/>
@@ -997,12 +966,12 @@
         <v>15</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1013,7 +982,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1021,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1069,21 +1038,21 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1094,12 +1063,12 @@
         <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1154,15 +1123,15 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1173,20 +1142,20 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1197,12 +1166,12 @@
         <v>27</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1210,7 +1179,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1221,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1236,7 +1205,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1248,20 +1217,20 @@
         <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1269,10 +1238,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1280,7 +1249,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1289,10 +1258,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1314,7 +1283,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1323,10 +1292,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1334,10 +1303,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1345,10 +1314,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1359,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1381,7 +1350,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1390,10 +1359,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1401,10 +1370,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1412,10 +1381,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1426,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1503,7 +1472,7 @@
       <formula1>"MAC_SIERRA,MAC_Yosemite,WINDOWS_7,WINDOWS_8,WINDOWS_10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"IE,EDGE,CHROME,FIREFOX,SAFARI"</formula1>
+      <formula1>"IE,EDGE,CHROME,FIREFOX,SAFARI,CHROMELINUX,CHROMELINUXHEADLESS,CHROMEHEADLESS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B29 B36 B47 B54">
       <formula1>"YES,NO"</formula1>
@@ -1531,85 +1500,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5">
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.75">
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75">
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75">
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75">
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="C13" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>